--- a/achievements.raw.xlsx
+++ b/achievements.raw.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laitingsheng\git\giim-hf-lab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C64CD3D-C989-467B-9C4F-CB7BC8CFD982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193FB4BE-51B4-4F96-B83A-8DEC14DBEEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21480" yWindow="13815" windowWidth="19935" windowHeight="14265" activeTab="1" xr2:uid="{C4CB686F-95AC-48B5-9B85-5702D00B3E22}"/>
+    <workbookView xWindow="-21600" yWindow="10395" windowWidth="19980" windowHeight="14295" activeTab="4" xr2:uid="{C4CB686F-95AC-48B5-9B85-5702D00B3E22}"/>
   </bookViews>
   <sheets>
     <sheet name="awards" sheetId="1" r:id="rId1"/>
     <sheet name="patents" sheetId="2" r:id="rId2"/>
     <sheet name="copyrights" sheetId="3" r:id="rId3"/>
     <sheet name="projects" sheetId="4" r:id="rId4"/>
+    <sheet name="publications" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="686">
   <si>
     <t>year</t>
   </si>
@@ -1523,12 +1524,589 @@
   </si>
   <si>
     <t>201910781430.4</t>
+  </si>
+  <si>
+    <t>Relational Graph Convolutional Network for Text-Mining-Based Accident Causal Classification</t>
+  </si>
+  <si>
+    <t>Spatially antiviral dynamics determines HCV in vivo replication and evolution</t>
+  </si>
+  <si>
+    <t>Citrus Tree Segmentation from UAV Images Based on Monocular Machine Vision in a Natural Orchard Environment</t>
+  </si>
+  <si>
+    <t>Computer vision-based localisation of picking points for automatic litchi harvesting applications towards natural scenarios</t>
+  </si>
+  <si>
+    <t>Lychee Fruit Detection Based on Monocular Machine Vision in Orchard Environment</t>
+  </si>
+  <si>
+    <t>Assessment of External Properties for Identifying Banana Fruit Maturity Stages Using Optical Imaging Techniques</t>
+  </si>
+  <si>
+    <t>Vision-based Skeleton Motion Phase to Evaluate Working Behavior Case Study of Ladder Climbing Safety</t>
+  </si>
+  <si>
+    <t>A Markov based model to estimate the number of syphilis cases among floating population</t>
+  </si>
+  <si>
+    <t>The Global dynamics of a SIR model considering competitions among multiple strains in patchy environments</t>
+  </si>
+  <si>
+    <t>Heat transfer uniformity analysis of floatation nozzle using a revised uniformity indicator</t>
+  </si>
+  <si>
+    <t>Gesture Recognition Based on Deep Learning in Complex Scenes</t>
+  </si>
+  <si>
+    <t>Target tracking method based on the fusion of structured SVM and KCF algorithm</t>
+  </si>
+  <si>
+    <t>Face Recognition Method Based on Enhanced Edge Cosine Loss Function and Residual Network</t>
+  </si>
+  <si>
+    <t>A Gesture Recognition Method Based on Yolov4 Network</t>
+  </si>
+  <si>
+    <t>Person re-identification algorithm based on multi-module convolutional neural network</t>
+  </si>
+  <si>
+    <t>A Stochastic Model with Optimal Control Strategy of the Transmission of Covid-19</t>
+  </si>
+  <si>
+    <t>Privacy-Preserving Automatic Slipping Detection Method for Elderly in Bathroom Using Depth Sensors</t>
+  </si>
+  <si>
+    <t>Bayberry maturity estimation algorithm based on multi-feature fusion</t>
+  </si>
+  <si>
+    <t>Human Behavior Recognition Based on IC3D</t>
+  </si>
+  <si>
+    <t>Vehicle Target Detection Based On R-FCN</t>
+  </si>
+  <si>
+    <t>Simultaneous Localization and Mapping based on Lidar</t>
+  </si>
+  <si>
+    <t>Human Behavior Recognition Method Based on Double-Branch Deep Convolution Neural Network</t>
+  </si>
+  <si>
+    <t>Research on the algorithm for solving the indoor vision positioning model of mobile robot</t>
+  </si>
+  <si>
+    <t>Research on the Fuzzy Algorithm of Path Planning of Mobile Robot</t>
+  </si>
+  <si>
+    <t>Research on Robot Motion Control based on Artificial Potential Method</t>
+  </si>
+  <si>
+    <t>An edge-detection Method based on Adaptive Canny Algorithm and Iterative Segmentation Threshold</t>
+  </si>
+  <si>
+    <t>Research and Application of Compound CNC Five Axis Five Linkage Milling-grinding-all-in-one Machine</t>
+  </si>
+  <si>
+    <t>基于LightGBM的非对称风险注塑成型产品尺寸预测模型</t>
+  </si>
+  <si>
+    <t>基于特征融合的小型透明注塑件缺陷检测技术研究</t>
+  </si>
+  <si>
+    <t>一种针对复杂场景的行人再识别优化方法</t>
+  </si>
+  <si>
+    <t>人体结构化特征与核相关滤波器算法融合的目标跟踪方法</t>
+  </si>
+  <si>
+    <t>迁移模式下卷积神经网络在虹膜识别中的应用</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 基于AlphaPose优化模型的老人跌倒行为检测算法</t>
+  </si>
+  <si>
+    <t>果园环境中成熟杨梅自动检测方法研究</t>
+  </si>
+  <si>
+    <t>基于多特征融合及SVM的苹果品种快速识别算法</t>
+  </si>
+  <si>
+    <t>基于深度学习的并行负荷预测方法</t>
+  </si>
+  <si>
+    <t>基于渗透算法和改进型OPTA的裂纹检测算法</t>
+  </si>
+  <si>
+    <t>光栅投影测量系统中的相位误差校正算法</t>
+  </si>
+  <si>
+    <t>基于机器视觉的快速切割路径生成系统</t>
+  </si>
+  <si>
+    <t>基于混合高斯运动检测模型与多特征的烟雾识别算法</t>
+  </si>
+  <si>
+    <t>基于ZMP轨迹的双足机器人步态规划及仿真</t>
+  </si>
+  <si>
+    <t>AC/DC矩阵变换器共模抑制研究</t>
+  </si>
+  <si>
+    <t>一种矩阵整流器的直流电压补偿策略</t>
+  </si>
+  <si>
+    <t>面向丘陵山地果树植株的植保无人机轨迹跟踪控制器设计</t>
+  </si>
+  <si>
+    <t>一种矩阵整流器非线性积分滑模控制</t>
+  </si>
+  <si>
+    <t>基于GraphX的社交网络用户推荐算法研究</t>
+  </si>
+  <si>
+    <t>柔性摆臂系统位置IP运动控制策略研究</t>
+  </si>
+  <si>
+    <t>基于Canny算子和改进型Hough变换的边缘定位方法</t>
+  </si>
+  <si>
+    <t>基于一种Wang-Chen混沌系统的图像加密算法分析</t>
+  </si>
+  <si>
+    <t>基于一种改进型的三阶混沌系统图像加密算法分析</t>
+  </si>
+  <si>
+    <t>轻质型材加工辅助优化关键技术研究与实现</t>
+  </si>
+  <si>
+    <t>基于改进遗传算法的多类图元混合加工路径优化方法</t>
+  </si>
+  <si>
+    <t>基于CCD测量技术的激光指向器作用距离检测</t>
+  </si>
+  <si>
+    <t>透镜中心厚度自动检测系统</t>
+  </si>
+  <si>
+    <t>低压电流互感器表面裂纹检测系统的设计与实现</t>
+  </si>
+  <si>
+    <t>开放式数控CAM软件关键模块库的设计与开发</t>
+  </si>
+  <si>
+    <t>一种基于UDP的文件获取协议的实现</t>
+  </si>
+  <si>
+    <t>一种用于图形设备接口的笔画模型方法</t>
+  </si>
+  <si>
+    <t>嵌入式运动控制系统中前瞻控制技术的研究</t>
+  </si>
+  <si>
+    <t>数学形态学和LoG算子结合的边缘检测技术</t>
+  </si>
+  <si>
+    <t>椭圆加工中的圆弧拟合及加减速算法研究</t>
+  </si>
+  <si>
+    <t>一种嵌入式大量数据处理技术的研究</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 基于移动计算的实时路况信息采集系统设计与实现</t>
+  </si>
+  <si>
+    <t>细晶钢筋轧制温度控制策略</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 基于PC的步进电机三轴联动控制系统研究</t>
+  </si>
+  <si>
+    <t>基于卷积自编码网络的锂离子电池电极干燥流场非线性降维技术研究</t>
+  </si>
+  <si>
+    <t>基于局部滑窗技术的杨梅识别与定位方法</t>
+  </si>
+  <si>
+    <t>伺服驱动系统无模型自适应控制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiajun Zhuang,Chaojun Hou,Yu Tang,Yong He,Qiwei Guo,Aimin Miao,Zhenyu Zhong,Shaoming Luo. </t>
+  </si>
+  <si>
+    <t>Chentong Li, Jiawei Liu, Yingying Zhang, Huan Lei, Jinhu Xu, Yao Rong</t>
+  </si>
+  <si>
+    <t>Liangsheng Wu,Chentong Li,Jingqi Ma,Xingjian Lu,Huan Lei</t>
+  </si>
+  <si>
+    <t>Zhou Zhigang, Lei Huan, Ding Pengcheng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Zhou Zhigang, Duan Guangxue, Lei Huan</t>
+  </si>
+  <si>
+    <t>Guangbing Zhou, Nan Wang, Xingjian Lu</t>
+  </si>
+  <si>
+    <t>雷欢，钟震宇，周俊伍，蒋西文，胡战虎</t>
+  </si>
+  <si>
+    <t>赵勇，雷欢，马敬奇，肖任翔，肖任翔*</t>
+  </si>
+  <si>
+    <t>雷欢，吴亮生，焦泽昱，陈再励，马敬奇*，钟震宇</t>
+  </si>
+  <si>
+    <t>雷欢，焦泽昱，马敬奇*，吴亮生，钟震宇</t>
+  </si>
+  <si>
+    <t>卢杏坚，高小征</t>
+  </si>
+  <si>
+    <t>宋强，林国营，马敬奇，吴亮生，何峰</t>
+  </si>
+  <si>
+    <t>吴蜀予，杨宜民，钟震宇，卢杏坚</t>
+  </si>
+  <si>
+    <t>仵桂学，杨宜民，黄东运，雷欢，王淼</t>
+  </si>
+  <si>
+    <t>吴亮生 雷欢 黄东运 陈光黎 卢杏坚 杨阳</t>
+  </si>
+  <si>
+    <t>李文威, 周广兵, 陈再励,  吴亮生</t>
+  </si>
+  <si>
+    <t>胡望;胡战虎;王志平</t>
+  </si>
+  <si>
+    <t>吴宝健; 钟震宇</t>
+  </si>
+  <si>
+    <t>陈再励，李丽丽，钟震宇</t>
+  </si>
+  <si>
+    <t>胡战虎; 胡望; 王志平</t>
+  </si>
+  <si>
+    <t>杨文杰;周志刚;雷欢;杨慧莉</t>
+  </si>
+  <si>
+    <t>廖树明，卢杏坚，马敬奇，谢远龙，钟震宇</t>
+  </si>
+  <si>
+    <t>马敬奇，卢亚，李柳琼，卢杏坚，何峰，钟震宇</t>
+  </si>
+  <si>
+    <t>何丹，马敬奇</t>
+  </si>
+  <si>
+    <t>杨阳; 吴亮生; 马敬奇; 王楠; 廖树明</t>
+  </si>
+  <si>
+    <t>陈光黎，雷欢，吴亮生，高小征，杨阳，周俊伍</t>
+  </si>
+  <si>
+    <t>王楠，吴亮生，杨阳，卢杏坚</t>
+  </si>
+  <si>
+    <t>王楠，雷欢，何峰，马敬奇，张红梅</t>
+  </si>
+  <si>
+    <t>宋强，林国营，马敬奇，王楠，杨阳</t>
+  </si>
+  <si>
+    <t>雷欢，黄东运，吴亮生，蔡朝卫，卢杏坚</t>
+  </si>
+  <si>
+    <t>史孝波，周松斌，黄东运，程韬波</t>
+  </si>
+  <si>
+    <t>黄东运，雷欢，卢杏坚</t>
+  </si>
+  <si>
+    <t>陈光黎，钟震宇，张严林，林丽娜，黎伟权</t>
+  </si>
+  <si>
+    <t>杨健雯，程韬波，钟震宇，曹永军，黎伟权</t>
+  </si>
+  <si>
+    <t>陈光黎，张严林，钟震宇，肖先文</t>
+  </si>
+  <si>
+    <t>钟震宇，卢杏坚，曹永军</t>
+  </si>
+  <si>
+    <t>曹永军，陶瑞岩，钟震宇，黄翔</t>
+  </si>
+  <si>
+    <t>黎伟权，胡战虎，钟震宇、曹永军，卢杏坚</t>
+  </si>
+  <si>
+    <t>张严林; 李海生; 钟震宇; 肖先文</t>
+  </si>
+  <si>
+    <t>杨志明，黄天仑*，谭鹏辉，钟震宇，张云</t>
+  </si>
+  <si>
+    <t>吴亮生，雷欢，陈再励，马敬奇</t>
+  </si>
+  <si>
+    <t>钟震宇、谢远龙、周广兵、雷欢、王楠</t>
+  </si>
+  <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>Journal of Theoretical Biology</t>
+  </si>
+  <si>
+    <t>Biosystems Engineering</t>
+  </si>
+  <si>
+    <t>Human-centric Computing and Information Sciences</t>
+  </si>
+  <si>
+    <t>KeAi</t>
+  </si>
+  <si>
+    <t>Mathematical Biosciences and Engineering</t>
+  </si>
+  <si>
+    <t>International Journal of Heat and Mass transfer</t>
+  </si>
+  <si>
+    <t>中国机械工程</t>
+  </si>
+  <si>
+    <t>自动化与信息工程</t>
+  </si>
+  <si>
+    <t>计算机应用</t>
+  </si>
+  <si>
+    <t>电子测量技术</t>
+  </si>
+  <si>
+    <t>计算机工程与应用</t>
+  </si>
+  <si>
+    <t>光学学报</t>
+  </si>
+  <si>
+    <t>机器人技术与应用</t>
+  </si>
+  <si>
+    <t>电力电子技术</t>
+  </si>
+  <si>
+    <t>中国科技信息</t>
+  </si>
+  <si>
+    <t>科技资讯</t>
+  </si>
+  <si>
+    <t>福建电脑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自动化与信息工程 </t>
+  </si>
+  <si>
+    <t>工矿自动化</t>
+  </si>
+  <si>
+    <t>现代制造工程</t>
+  </si>
+  <si>
+    <t>微计算机信息</t>
+  </si>
+  <si>
+    <t>湖南科技大学学报（自然科学版）</t>
+  </si>
+  <si>
+    <t>SCI</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>期刊</t>
+  </si>
+  <si>
+    <t>Applied Sciences</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>Chinese Control and Decision Conference</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Emergency Science and Information Technology</t>
+  </si>
+  <si>
+    <t>Chinese Control Conference</t>
+  </si>
+  <si>
+    <t>Control and Decision Conference</t>
+  </si>
+  <si>
+    <t>International Conference on Network Engineering and Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>International Conference on Mathematics, Modelling, Simulation and Algorithms</t>
+  </si>
+  <si>
+    <t>International Conference on Computer Systems, Electronics and Control</t>
+  </si>
+  <si>
+    <t>International Conference on Mechatronics and Information Technology</t>
+  </si>
+  <si>
+    <t>International Conference on Control Science and Systems Engineering</t>
+  </si>
+  <si>
+    <t>International Conference on Process Equipment, Mechatronics Engineering and Material Science</t>
+  </si>
+  <si>
+    <t>刘永兴；唐小琦；钟靖龙；钟震宇；周向东</t>
+  </si>
+  <si>
+    <t>刁思勉，黄天仑，毛霆，王楠，钟震宇，张云，周华民</t>
+  </si>
+  <si>
+    <t>马敬奇; 雷欢; 陈敏翼</t>
+  </si>
+  <si>
+    <t>马敬奇，钟震宇，雷欢，吴亮生</t>
+  </si>
+  <si>
+    <t>王楠，吴健，卢杏坚，钟震宇，黄凯</t>
+  </si>
+  <si>
+    <t>Wang Nan, Zhou Zhigang, Ma Jingqi, Lei Huan, Li Junyi, Zhong Zhenyu</t>
+  </si>
+  <si>
+    <t>Yayong Chen, Chaojun Hou, Yu Tang, Jiajun Zhuang, Jintian Lin, Yong He, Qiwei Guo, Zhenyu Zhong</t>
+  </si>
+  <si>
+    <t>Zaili Chen, Kai Huang, Li Wu, Zhenyu Zhong, Zeyu Jiao</t>
+  </si>
+  <si>
+    <t>Li Chentong, Yingying Zhang, Yicang Zhou</t>
+  </si>
+  <si>
+    <t>Zaili Chen, Kai Huang, Li Wu, Zhenyu Zhong，Zeyu Jiao</t>
+  </si>
+  <si>
+    <t>Wang Nan, Zhou Zhigang, Lei Huan, Ma Jingqi, Zhuang Jiajun, Duan Guangxue</t>
+  </si>
+  <si>
+    <t>Jingqi Ma, Kai Huang, Zeyu Jiao, Chentong Li, Liangsheng Wu</t>
+  </si>
+  <si>
+    <t>Huan Lei, Junhao Lin, Chengtong Li, Zeyu Jiao, Zaili Chen, Zhenyu Zhong</t>
+  </si>
+  <si>
+    <t>Hengshan Zong, Huan Lei, Zeyu Jiao, Zhengyu Zhong</t>
+  </si>
+  <si>
+    <t>Ding Pengcheng, Cheng Siyuan, Zhong Zhenyu, Zhou Zhigang, Ma Jingqi, Lei Huan</t>
+  </si>
+  <si>
+    <t>Huang Kai, Lei Huan, Jiao Zeyu, Huang Tianlun, Chen Zaili, Wang Nan</t>
+  </si>
+  <si>
+    <t>Guo Qiwei, Chen Yayong, Tang Yu, Zhuang Jiajun, He Yong, Hou Chaojun, Chu Xuan, Zhong Zhenyu, Luo Shaoming</t>
+  </si>
+  <si>
+    <t>Jiajun Zhuang, Chaojun Hou, Yu Tang, Yong He, Qiwei Guo, Zhenyu Zhong, Shaoming Luo</t>
+  </si>
+  <si>
+    <t>Zhenyu Zhong, Zeyi Guo, Huan Lei, Bo Kuang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song Qiang, Lin Guoying, Ma Jingqi, Zhang Hongmei </t>
+  </si>
+  <si>
+    <t>Chentong Li, Jinyan Wang, Jinhu Xu, Yao Rong</t>
+  </si>
+  <si>
+    <t>Guangbing Zhou, Baosheng Shen, Jie Yan</t>
+  </si>
+  <si>
+    <t>GuangBing Zhou, Huan Lei, LiangSheng Wu</t>
+  </si>
+  <si>
+    <t>Jia Danping, Duan Guangxue, Wang Nan, Zhou Zhigang, Zhong Zhenyu, Lei Huan</t>
+  </si>
+  <si>
+    <t>Huang Tianlun, Tan Penghui, Zhang Yun, Huang Zhigao, Zhou Huamin</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>10.3390/app12052482</t>
+  </si>
+  <si>
+    <t>10.1016/j.jtbi.2020.110378</t>
+  </si>
+  <si>
+    <t>10.3390/s19245558</t>
+  </si>
+  <si>
+    <t>10.1016/j.biosystemseng.2019.08.016</t>
+  </si>
+  <si>
+    <t>10.3390/s19194091</t>
+  </si>
+  <si>
+    <t>10.3390/s19132910</t>
+  </si>
+  <si>
+    <t>10.1016/j.idm.2022.01.001</t>
+  </si>
+  <si>
+    <t>10.3934/mbe.2022218</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijheatmasstransfer.2020.120885</t>
+  </si>
+  <si>
+    <t>基于NURBS曲线插补的速度平滑控制策略研究</t>
+  </si>
+  <si>
+    <t>Deep Neural Networks for Semantic Segmentation of Lung Nodule</t>
+  </si>
+  <si>
+    <t>中国控制会议</t>
+  </si>
+  <si>
+    <t>authors</t>
+  </si>
+  <si>
+    <t>Chen Zaili, Wu Li , He Huangang, Jiao Zeyu, Wu Liangsheng</t>
+  </si>
+  <si>
+    <t>Lei Huan; Hu Zhanhu; Li Xinwang; Liang Junxiong; Zhong Zhenyu</t>
+  </si>
+  <si>
+    <t>Lei Huan, MaJingqi, Luxing Jian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1564,12 +2142,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2022,7 +2609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F59CC-A7CC-4D8F-84E9-27806C4F094C}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
@@ -3386,7 +3973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AE473A-A78F-4C86-B4E2-1DEDC5A19B49}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="D25" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
@@ -4384,4 +4971,1286 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C540633E-F092-40B2-A2C5-147291E52A37}">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="129.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="123.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="109.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44616</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44125</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43815</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43773</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43729</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43647</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44576</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44617</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44629</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44616</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44287</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43619</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44066</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43619</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44522</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44522</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44522</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44338</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44403</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44315</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43619</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43260</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B24" s="3">
+        <v>43619</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43260</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B26" s="3">
+        <v>43184</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43094</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B28" s="3">
+        <v>42973</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B29" s="3">
+        <v>42719</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B30" s="3">
+        <v>41488</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B31" s="3">
+        <v>41481</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44453</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44558</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44558</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44022</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B36" s="3">
+        <v>43959</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44358</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44375</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44071</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B40" s="3">
+        <v>42962</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B41" s="3">
+        <v>42361</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B42" s="3">
+        <v>41830</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B43" s="3">
+        <v>42170</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B44" s="3">
+        <v>41744</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B45" s="3">
+        <v>43692</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B46" s="3">
+        <v>43424</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B47" s="3">
+        <v>43341</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B48" s="3">
+        <v>43266</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B49" s="3">
+        <v>43179</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B50" s="3">
+        <v>43146</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B51" s="3">
+        <v>42901</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B52" s="3">
+        <v>42901</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B53" s="3">
+        <v>42642</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B54" s="3">
+        <v>42607</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B55" s="3">
+        <v>42536</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B56" s="3">
+        <v>42536</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B57" s="3">
+        <v>42395</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B58" s="3">
+        <v>42353</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B59" s="3">
+        <v>42292</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B60" s="3">
+        <v>41440</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B61" s="3">
+        <v>41258</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B62" s="3">
+        <v>41136</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B63" s="3">
+        <v>40986</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B64" s="3">
+        <v>40898</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B65" s="3">
+        <v>40804</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B66" s="3">
+        <v>40770</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B67" s="3">
+        <v>40709</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B68" s="3">
+        <v>40527</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B69" s="3">
+        <v>40047</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B70" s="3">
+        <v>44558</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B71" s="3">
+        <v>44558</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B72" s="3">
+        <v>43566</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>